--- a/tech_layoffs_research/exports/tech_layoffs_results.xlsx
+++ b/tech_layoffs_research/exports/tech_layoffs_results.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbryant/Documents/GitHub/SQL_Projects/tech_layoffs_research/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20847738-A831-B946-A07B-3488E2FE44A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066208BB-1592-1F42-A790-1037F141E93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
   </bookViews>
   <sheets>
     <sheet name="layoffs_by_city" sheetId="1" r:id="rId1"/>
     <sheet name="avg_layoffs_per_co_by_city" sheetId="2" r:id="rId2"/>
     <sheet name="avg_percent_impacted_by_city" sheetId="3" r:id="rId3"/>
     <sheet name="layoffs_by_quarter" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$3:$A$6</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$3:$B$6</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$3:$C$6</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$D$2</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$D$3:$D$6</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Seattle</t>
   </si>
@@ -121,6 +132,15 @@
   <si>
     <t>LAYOFFS BY QUARTER</t>
   </si>
+  <si>
+    <t>layoffs</t>
+  </si>
+  <si>
+    <t>interest_rate</t>
+  </si>
+  <si>
+    <t>LAYOFFS BY QUARTER W/ INTEREST RATES</t>
+  </si>
 </sst>
 </file>
 
@@ -189,6 +209,3322 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tech Layoffs by City</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>layoffs_by_city!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>city_total_layoffs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>layoffs_by_city!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Seattle</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>San Francisco</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Menlo Park</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>San Jose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>layoffs_by_city!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93B7-A64E-808C-B3782D8E22AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1295093440"/>
+        <c:axId val="1295095168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1295093440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>City</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295095168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1295095168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Number of Layoffs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1295093440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quarterly Tech Layoffs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>layoffs_by_quarter!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quarter_layoffs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>layoffs_by_quarter!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>layoffs_by_quarter!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F32C-364F-9D69-20BA65EBEFF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="736159664"/>
+        <c:axId val="736161376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="736159664"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="736161376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="736161376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Number of layoffs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="736159664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Layoffs Compared to Interest Rates by Quarter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12444460067491565"/>
+          <c:y val="0.10792601849564093"/>
+          <c:w val="0.77684492563429575"/>
+          <c:h val="0.75263450731211001"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>layoffs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2F9-6A47-87E6-F3894B987EAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="560051088"/>
+        <c:axId val="560052816"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>interest_rate</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2F9-6A47-87E6-F3894B987EAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1586809664"/>
+        <c:axId val="1587407328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="560051088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560052816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560052816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Number of Layoffs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.470238095238095E-2"/>
+              <c:y val="0.30816128563268297"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560051088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1587407328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Interest Rate </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.95884795650543686"/>
+              <c:y val="0.31514011821087867"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1586809664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1586809664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1587407328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>529771</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137886</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15096804-1900-685E-F018-21D9A372B32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93579</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>105611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521368</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41443</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF84DD14-FC34-2915-43BD-C5DDCB72C555}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251818</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>59167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29803</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E4AB27-D302-9856-9EC1-4B407AF3A161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,7 +3847,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="175" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,6 +3915,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -739,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EA780F-C220-8944-BCAF-819AA7D7B6E4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,5 +4152,105 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432E3B40-1F3D-0940-883D-4D610D1EAD18}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>11254</v>
+      </c>
+      <c r="D3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>12628</v>
+      </c>
+      <c r="D4">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>30098</v>
+      </c>
+      <c r="D5">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>30829</v>
+      </c>
+      <c r="D6">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tech_layoffs_research/exports/tech_layoffs_results.xlsx
+++ b/tech_layoffs_research/exports/tech_layoffs_results.xlsx
@@ -8,27 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbryant/Documents/GitHub/SQL_Projects/tech_layoffs_research/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066208BB-1592-1F42-A790-1037F141E93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742A0A4-00A3-E445-A812-37107E8B556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
   </bookViews>
   <sheets>
     <sheet name="layoffs_by_city" sheetId="1" r:id="rId1"/>
     <sheet name="avg_layoffs_per_co_by_city" sheetId="2" r:id="rId2"/>
     <sheet name="avg_percent_impacted_by_city" sheetId="3" r:id="rId3"/>
     <sheet name="layoffs_by_quarter" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="comp_layoffs_interestRates" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$3:$A$6</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$3:$B$6</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$3:$C$6</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$D$2</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$D$3:$D$6</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Seattle</t>
   </si>
@@ -133,13 +123,16 @@
     <t>LAYOFFS BY QUARTER</t>
   </si>
   <si>
-    <t>layoffs</t>
+    <t>LAYOFFS BY QUARTER W/ INTEREST RATES</t>
   </si>
   <si>
-    <t>interest_rate</t>
+    <t>monthly_interest_rate</t>
   </si>
   <si>
-    <t>LAYOFFS BY QUARTER W/ INTEREST RATES</t>
+    <t>month</t>
+  </si>
+  <si>
+    <t>monthly_layoffs</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Layoffs Compared to Interest Rates by Quarter</a:t>
+              <a:t>Layoffs Compared to Interest Rates by Month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1172,11 +1165,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>comp_layoffs_interestRates!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>layoffs</c:v>
+                  <c:v>monthly_layoffs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1193,21 +1186,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$3:$B$6</c:f>
+              <c:f>comp_layoffs_interestRates!$A$3:$B$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Q2</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Q3</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Q4</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Q1</c:v>
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1221,6 +1241,33 @@
                     <c:v>2022</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>2023</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1229,21 +1276,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$6</c:f>
+              <c:f>comp_layoffs_interestRates!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11254</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12628</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30098</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30829</c:v>
+                  <c:v>5679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4836</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2636</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,21 +1363,48 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$3:$B$6</c:f>
+              <c:f>comp_layoffs_interestRates!$A$3:$B$15</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Q2</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Q3</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Q4</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Q1</c:v>
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1317,6 +1418,33 @@
                     <c:v>2022</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>2023</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1325,21 +1453,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$6</c:f>
+              <c:f>comp_layoffs_interestRates!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.15</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.62</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5</c:v>
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,16 +3645,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>251818</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>59167</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280040</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>125018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>29803</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>109967</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>58025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4158,10 +4313,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432E3B40-1F3D-0940-883D-4D610D1EAD18}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4171,7 +4326,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4181,10 +4336,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -4194,56 +4349,182 @@
       <c r="A3">
         <v>2022</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>11254</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>0.71</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2022</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>12628</v>
+        <v>168</v>
       </c>
       <c r="D4">
-        <v>2.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>30098</v>
+        <v>250</v>
       </c>
       <c r="D5">
-        <v>3.62</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5679</v>
+      </c>
+      <c r="D6">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2189</v>
+      </c>
+      <c r="D7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3386</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>4836</v>
+      </c>
+      <c r="D9">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5758</v>
+      </c>
+      <c r="D10">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2034</v>
+      </c>
+      <c r="D11">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2636</v>
+      </c>
+      <c r="D12">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>24365</v>
+      </c>
+      <c r="D13">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>3097</v>
+      </c>
+      <c r="D14">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>30829</v>
-      </c>
-      <c r="D6">
-        <v>4.5</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>30341</v>
+      </c>
+      <c r="D15">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>

--- a/tech_layoffs_research/exports/tech_layoffs_results.xlsx
+++ b/tech_layoffs_research/exports/tech_layoffs_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbryant/Documents/GitHub/SQL_Projects/tech_layoffs_research/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742A0A4-00A3-E445-A812-37107E8B556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A180820-78B2-8E4C-9271-A86479ACC6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
   </bookViews>
   <sheets>
     <sheet name="layoffs_by_city" sheetId="1" r:id="rId1"/>
@@ -586,6 +586,38 @@
         <c:crossAx val="1295093440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1109,7 +1141,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Layoffs Compared to Interest Rates by Month</a:t>
+              <a:t>Layoffs vs Interest Rates by Month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4001,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC80D4-69BD-B64D-9060-948B4A930C33}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4315,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432E3B40-1F3D-0940-883D-4D610D1EAD18}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tech_layoffs_research/exports/tech_layoffs_results.xlsx
+++ b/tech_layoffs_research/exports/tech_layoffs_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbryant/Documents/GitHub/SQL_Projects/tech_layoffs_research/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A180820-78B2-8E4C-9271-A86479ACC6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F46757-AD31-4C45-8BB5-8292A6F38528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
   </bookViews>
   <sheets>
     <sheet name="layoffs_by_city" sheetId="1" r:id="rId1"/>
@@ -4033,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AC80D4-69BD-B64D-9060-948B4A930C33}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView zoomScale="175" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4347,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432E3B40-1F3D-0940-883D-4D610D1EAD18}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4364,16 +4364,16 @@
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/tech_layoffs_research/exports/tech_layoffs_results.xlsx
+++ b/tech_layoffs_research/exports/tech_layoffs_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbryant/Documents/GitHub/SQL_Projects/tech_layoffs_research/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F46757-AD31-4C45-8BB5-8292A6F38528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AC5E3-04F1-C949-8C89-0C0B0A4CC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
   </bookViews>
@@ -1141,7 +1141,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Layoffs vs Interest Rates by Month</a:t>
+              <a:t>Tech Layoffs vs Interest Rates by Month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4348,7 +4348,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tech_layoffs_research/exports/tech_layoffs_results.xlsx
+++ b/tech_layoffs_research/exports/tech_layoffs_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbryant/Documents/GitHub/SQL_Projects/tech_layoffs_research/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9AC5E3-04F1-C949-8C89-0C0B0A4CC3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC543D-E813-6543-B024-CF8B88B7FA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
   </bookViews>
   <sheets>
     <sheet name="layoffs_by_city" sheetId="1" r:id="rId1"/>
@@ -4263,7 +4263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EA780F-C220-8944-BCAF-819AA7D7B6E4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4347,7 +4347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432E3B40-1F3D-0940-883D-4D610D1EAD18}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/tech_layoffs_research/exports/tech_layoffs_results.xlsx
+++ b/tech_layoffs_research/exports/tech_layoffs_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbryant/Documents/GitHub/SQL_Projects/tech_layoffs_research/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC543D-E813-6543-B024-CF8B88B7FA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4D75F-EFF6-9846-841E-73D7CEBEA968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{D5FE2044-42E5-F445-8EAD-A3BDB9DA7242}"/>
   </bookViews>
   <sheets>
     <sheet name="layoffs_by_city" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="avg_percent_impacted_by_city" sheetId="3" r:id="rId3"/>
     <sheet name="layoffs_by_quarter" sheetId="4" r:id="rId4"/>
     <sheet name="comp_layoffs_interestRates" sheetId="5" r:id="rId5"/>
+    <sheet name="layoffs_by_IPOstatus" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Seattle</t>
   </si>
@@ -133,6 +134,21 @@
   </si>
   <si>
     <t>monthly_layoffs</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>num_companies</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>LAYOFFS BY IPO STATUS</t>
   </si>
 </sst>
 </file>
@@ -4263,7 +4279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EA780F-C220-8944-BCAF-819AA7D7B6E4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+    <sheetView zoomScale="190" workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4566,4 +4582,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEAB901-DE36-DF40-8BD5-2B8A2ADA5737}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>